--- a/readexcel/4weeek-data.xlsx
+++ b/readexcel/4weeek-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\python\readpdf\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95850B95-3B0D-458E-B60E-1DD7F4E4675F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{F9FCEC8F-2D93-4D33-8724-B0ABD90874A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19725" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="week3" sheetId="3" r:id="rId3"/>
     <sheet name="week4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>id</t>
   </si>
@@ -47,12 +41,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -60,7 +54,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -416,27 +410,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3EF28C-2B36-4C16-A44E-B1894D247BCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -447,264 +441,224 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <f ca="1">RANDBETWEEN(30,99)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B21" ca="1" si="0">RANDBETWEEN(1,9)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C21" ca="1" si="1">RANDBETWEEN(30,99)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -714,16 +668,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2160066F-8442-49A8-B623-1562FF7D4708}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -734,282 +688,243 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(30,99)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B21" ca="1" si="0">RANDBETWEEN(1,9)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C21" ca="1" si="1">RANDBETWEEN(30,99)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86717745-FDEE-45D1-B1B1-6EC7E84268B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1020,282 +935,243 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(30,99)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B21" ca="1" si="0">RANDBETWEEN(1,9)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C21" ca="1" si="1">RANDBETWEEN(30,99)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9790289B-FA9B-4A27-823C-9A0E08C5D3EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1306,267 +1182,228 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(30,99)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B21" ca="1" si="0">RANDBETWEEN(1,9)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C21" ca="1" si="1">RANDBETWEEN(30,99)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>